--- a/Team_Everyday_Attendence.xlsx
+++ b/Team_Everyday_Attendence.xlsx
@@ -179,12 +179,161 @@
         </r>
       </text>
     </comment>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Busy in University Exam
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not connected
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Response</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Response
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Response
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Response
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -226,7 +375,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -275,6 +424,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -296,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -312,9 +474,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -623,7 +782,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -635,7 +794,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -710,16 +869,36 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A3" s="7"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="A3" s="5">
+        <v>45141</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
